--- a/server/excel/zytj(资源统计)_Proto.xlsx
+++ b/server/excel/zytj(资源统计)_Proto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="28695" windowHeight="14070" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CbhsZytj(分包商统计)" sheetId="1" r:id="rId1"/>
@@ -13,15 +13,16 @@
     <sheet name="CbhsZytjFC(分包商统计-辅材)" sheetId="4" r:id="rId4"/>
     <sheet name="CbhsZdgxhs(重点工序核算)" sheetId="5" r:id="rId5"/>
     <sheet name="CbhsZdgxhsGZ(重点工序核算-工种)" sheetId="6" r:id="rId6"/>
-    <sheet name="CbhsZdgxhsZC(重点工序核算-主材)" sheetId="7" r:id="rId7"/>
-    <sheet name="CbhsZdgxhsFC(重点工序核算-辅材)" sheetId="8" r:id="rId8"/>
+    <sheet name="CbhsZdgxhsMachine(重点工序核算-机械设备)" sheetId="9" r:id="rId7"/>
+    <sheet name="CbhsZdgxhsZC(重点工序核算-主材)" sheetId="7" r:id="rId8"/>
+    <sheet name="CbhsZdgxhsFC(重点工序核算-辅材)" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
   <si>
     <t>属性名</t>
   </si>
@@ -422,6 +423,27 @@
     <t>必填|对应的分包工程量 名称</t>
   </si>
   <si>
+    <t>ArrayList&lt;CbhsZdgxhsGZ&gt;</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;CbhsZdgxhsZC&gt;</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;CbhsZdgxhsFC&gt;</t>
+  </si>
+  <si>
+    <t>machinerys</t>
+  </si>
+  <si>
+    <t>机械设备</t>
+  </si>
+  <si>
+    <t>ArrayList&lt;CbhsZdgxhsMachine&gt;</t>
+  </si>
+  <si>
+    <t>(重点工序核算)</t>
+  </si>
+  <si>
     <t>machineryOid</t>
   </si>
   <si>
@@ -450,18 +472,6 @@
   </si>
   <si>
     <t>必填|折旧费或租赁费</t>
-  </si>
-  <si>
-    <t>ArrayList&lt;CbhsZdgxhsGZ&gt;</t>
-  </si>
-  <si>
-    <t>ArrayList&lt;CbhsZdgxhsZC&gt;</t>
-  </si>
-  <si>
-    <t>ArrayList&lt;CbhsZdgxhsFC&gt;</t>
-  </si>
-  <si>
-    <t>(重点工序核算)</t>
   </si>
 </sst>
 </file>
@@ -470,9 +480,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -509,13 +519,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -574,6 +577,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,7 +686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,7 +734,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,7 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,13 +782,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -796,19 +812,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,7 +830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,12 +843,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,6 +861,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,10 +1011,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1013,16 +1023,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1031,115 +1041,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1161,10 +1171,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1659,7 +1669,7 @@
       <c r="M5" s="6"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1670,7 +1680,7 @@
       </c>
     </row>
     <row r="7" s="8" customFormat="1" spans="1:11">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1950,7 +1960,7 @@
       </c>
     </row>
     <row r="26" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1964,7 +1974,7 @@
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -2086,7 +2096,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" s="9" customFormat="1" ht="11" customHeight="1" spans="1:13">
+    <row r="36" s="10" customFormat="1" ht="11" customHeight="1" spans="1:13">
       <c r="A36" s="1" t="s">
         <v>92</v>
       </c>
@@ -2111,7 +2121,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" s="9" customFormat="1" ht="11" customHeight="1" spans="1:13">
+    <row r="37" s="10" customFormat="1" ht="11" customHeight="1" spans="1:13">
       <c r="A37" s="1" t="s">
         <v>94</v>
       </c>
@@ -2514,7 +2524,7 @@
   <sheetPr/>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -2704,16 +2714,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="$A16:$XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="17.4416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6666666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.225" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.89166666666667" style="1"/>
@@ -2894,7 +2904,7 @@
       <c r="M7" s="6"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:4">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -2905,7 +2915,7 @@
       </c>
     </row>
     <row r="9" s="8" customFormat="1" spans="1:11">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -2945,190 +2955,179 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:4">
-      <c r="A12" s="10" t="s">
+    <row r="12" customFormat="1" ht="12" customHeight="1" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="11" customHeight="1" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="11" customHeight="1" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
+      <c r="A16" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:11">
-      <c r="A13" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" ht="12" customHeight="1" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" customFormat="1" ht="12" customHeight="1" spans="1:11">
-      <c r="A15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" customFormat="1" ht="12" customHeight="1" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" customFormat="1" ht="12" customHeight="1" spans="1:11">
-      <c r="A17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" customFormat="1" ht="12" customHeight="1" spans="1:11">
+      <c r="F17" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" ht="13.5" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" customFormat="1" ht="12" customHeight="1" spans="1:11">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" s="8" customFormat="1" spans="1:13">
+        <v>134</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" ht="13.5" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="1"/>
+        <v>80</v>
+      </c>
       <c r="D20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>36</v>
+      </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1">
-        <v>50</v>
-      </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" customFormat="1" ht="12" customHeight="1" spans="1:11">
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" s="8" customFormat="1" spans="1:13">
+        <v>135</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="13.5" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="1"/>
+        <v>85</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-    </row>
-    <row r="23" s="8" customFormat="1" spans="1:13">
+    </row>
+    <row r="23" customFormat="1" ht="13.5" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>137</v>
+      </c>
       <c r="D23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>138</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1">
-        <v>50</v>
-      </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" customFormat="1" ht="12" customHeight="1" spans="1:11">
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>52</v>
+        <v>87</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>23</v>
@@ -3137,260 +3136,67 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" customFormat="1" ht="12" customHeight="1" spans="1:11">
+    <row r="25" s="1" customFormat="1" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>89</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" customFormat="1" ht="12" customHeight="1" spans="1:11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" s="10" customFormat="1" ht="11" customHeight="1" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>93</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" customFormat="1" ht="12" customHeight="1" spans="1:11">
+        <v>23</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1">
+        <v>50</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" s="10" customFormat="1" ht="11" customHeight="1" spans="1:13">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>95</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="11" customHeight="1" spans="1:11">
-      <c r="A29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="11" customHeight="1" spans="1:11">
-      <c r="A30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K30" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="11" customHeight="1" spans="1:4">
-      <c r="A31" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:6">
-      <c r="A32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:6">
-      <c r="A34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A35" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:6">
-      <c r="A36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" ht="13.5" spans="1:6">
-      <c r="A37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:11">
-      <c r="A38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K38" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" s="9" customFormat="1" ht="11" customHeight="1" spans="1:13">
-      <c r="A40" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1">
-        <v>50</v>
-      </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" s="9" customFormat="1" ht="11" customHeight="1" spans="1:13">
-      <c r="A41" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3404,7 +3210,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -3478,7 +3284,7 @@
         <v>97</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
@@ -3549,6 +3355,327 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="29.25" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="11.25" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="11" customHeight="1" spans="1:13">
+      <c r="A3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="11.25" spans="1:4">
+      <c r="A4" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="11.25" spans="1:11">
+      <c r="A5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="12" customHeight="1" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" customFormat="1" ht="12" customHeight="1" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" customFormat="1" ht="12" customHeight="1" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" customFormat="1" ht="12" customHeight="1" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" customFormat="1" ht="12" customHeight="1" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" customFormat="1" ht="12" customHeight="1" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" s="8" customFormat="1" ht="11.25" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1">
+        <v>50</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" customFormat="1" ht="12" customHeight="1" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" s="8" customFormat="1" ht="11.25" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" s="8" customFormat="1" ht="11.25" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1">
+        <v>50</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" customFormat="1" ht="12" customHeight="1" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="12" customHeight="1" spans="1:11">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" customFormat="1" ht="12" customHeight="1" spans="1:11">
+      <c r="A18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M12"/>
@@ -3628,7 +3755,7 @@
         <v>97</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">
@@ -3766,7 +3893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M10"/>
@@ -3846,7 +3973,7 @@
         <v>97</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6" t="s">

--- a/server/excel/zytj(资源统计)_Proto.xlsx
+++ b/server/excel/zytj(资源统计)_Proto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="28695" windowHeight="14070" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CbhsZytj(分包商统计)" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
   <si>
     <t>属性名</t>
   </si>
@@ -472,6 +472,12 @@
   </si>
   <si>
     <t>必填|折旧费或租赁费</t>
+  </si>
+  <si>
+    <t>p_total</t>
+  </si>
+  <si>
+    <t>必填|机械总价</t>
   </si>
 </sst>
 </file>
@@ -480,9 +486,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2716,8 +2722,8 @@
   <sheetPr/>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="$A16:$XFD16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="11.25"/>
@@ -3357,10 +3363,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3417,14 +3423,9 @@
       <c r="B2" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
@@ -3668,6 +3669,18 @@
         <v>36</v>
       </c>
       <c r="K18" s="1"/>
+    </row>
+    <row r="19" customFormat="1" ht="12" customHeight="1" spans="1:11">
+      <c r="A19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/server/excel/zytj(资源统计)_Proto.xlsx
+++ b/server/excel/zytj(资源统计)_Proto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="22943" windowHeight="9947" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CbhsZytj(分包商统计)" sheetId="1" r:id="rId1"/>
@@ -485,10 +485,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -528,22 +528,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -551,15 +543,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -570,14 +554,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -595,9 +571,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,22 +601,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -635,15 +615,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,15 +663,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,25 +692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,7 +710,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,7 +728,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,25 +830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,37 +842,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,49 +860,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,45 +912,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -962,26 +923,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,8 +945,67 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,10 +1017,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,133 +1029,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1535,23 +1535,23 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.4444444444444" style="1" customWidth="1"/>
     <col min="2" max="2" width="21.6666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.225" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.89166666666667" style="1"/>
+    <col min="4" max="4" width="33.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88888888888889" style="1"/>
     <col min="6" max="6" width="22.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.89166666666667" style="1"/>
-    <col min="9" max="9" width="10.4416666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.8916666666667" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88888888888889" style="1"/>
+    <col min="9" max="9" width="10.4444444444444" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" style="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="13" width="15.225" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.89166666666667" style="1"/>
+    <col min="12" max="13" width="15.2222222222222" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="12.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" customFormat="1" ht="13.5" spans="1:6">
+    <row r="29" customFormat="1" ht="14.4" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>74</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" customFormat="1" ht="13.5" spans="1:6">
+    <row r="31" customFormat="1" ht="14.4" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>79</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" customFormat="1" ht="13.5" spans="1:6">
+    <row r="33" customFormat="1" ht="14.4" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>84</v>
       </c>
@@ -2166,15 +2166,15 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="15.775" customWidth="1"/>
-    <col min="2" max="2" width="25.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="15.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="25.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="25.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="12.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="11.25" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="10.8" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -2316,15 +2316,15 @@
       <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.775" customWidth="1"/>
-    <col min="2" max="2" width="25.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="15.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="25.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="25.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="12.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2365,7 +2365,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="11.25" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="10.8" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -2534,15 +2534,15 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.775" customWidth="1"/>
-    <col min="2" max="2" width="25.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="15.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="25.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="25.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="12.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="11.25" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="10.8" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -2722,27 +2722,27 @@
   <sheetPr/>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="1" width="17.4416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.4444444444444" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.3796296296296" style="1" customWidth="1"/>
     <col min="3" max="3" width="50" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.225" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.89166666666667" style="1"/>
+    <col min="4" max="4" width="25.2222222222222" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88888888888889" style="1"/>
     <col min="6" max="6" width="22.3333333333333" style="1" customWidth="1"/>
-    <col min="7" max="8" width="8.89166666666667" style="1"/>
-    <col min="9" max="9" width="10.4416666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.8916666666667" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88888888888889" style="1"/>
+    <col min="9" max="9" width="10.4444444444444" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.8888888888889" style="1" customWidth="1"/>
     <col min="11" max="11" width="13" style="1" customWidth="1"/>
-    <col min="12" max="13" width="15.225" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.89166666666667" style="1"/>
+    <col min="12" max="13" width="15.2222222222222" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="12.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" customFormat="1" ht="13.5" spans="1:6">
+    <row r="18" customFormat="1" ht="14.4" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>74</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" customFormat="1" ht="13.5" spans="1:6">
+    <row r="20" customFormat="1" ht="14.4" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" customFormat="1" ht="13.5" spans="1:6">
+    <row r="22" customFormat="1" ht="14.4" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" customFormat="1" ht="13.5" spans="1:6">
+    <row r="23" customFormat="1" ht="14.4" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>136</v>
       </c>
@@ -3123,7 +3123,9 @@
       <c r="D23" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:11">
       <c r="A24" s="1" t="s">
@@ -3219,15 +3221,15 @@
       <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="15.775" customWidth="1"/>
-    <col min="2" max="2" width="25.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="15.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="25.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="25.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="12.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3268,7 +3270,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="11.25" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="10.8" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -3365,17 +3367,17 @@
   <sheetPr/>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="31.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="29.25" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="24.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3416,7 +3418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="11.25" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="10.8" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -3454,7 +3456,7 @@
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="11.25" spans="1:4">
+    <row r="4" s="1" customFormat="1" ht="10.8" spans="1:4">
       <c r="A4" s="9" t="s">
         <v>140</v>
       </c>
@@ -3465,7 +3467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="11.25" spans="1:11">
+    <row r="5" s="1" customFormat="1" ht="10.8" spans="1:11">
       <c r="A5" s="9" t="s">
         <v>142</v>
       </c>
@@ -3551,7 +3553,7 @@
       </c>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" s="8" customFormat="1" ht="11.25" spans="1:13">
+    <row r="12" s="8" customFormat="1" ht="10.8" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>43</v>
       </c>
@@ -3588,7 +3590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" s="8" customFormat="1" ht="11.25" spans="1:13">
+    <row r="14" s="8" customFormat="1" ht="10.8" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -3609,7 +3611,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" s="8" customFormat="1" ht="11.25" spans="1:13">
+    <row r="15" s="8" customFormat="1" ht="10.8" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>49</v>
       </c>
@@ -3697,15 +3699,15 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.775" customWidth="1"/>
-    <col min="2" max="2" width="25.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="15.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="25.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="25.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="12.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3746,7 +3748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="11.25" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="10.8" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -3915,15 +3917,15 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15.775" customWidth="1"/>
-    <col min="2" max="2" width="25.4416666666667" customWidth="1"/>
+    <col min="1" max="1" width="15.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="25.4444444444444" customWidth="1"/>
     <col min="3" max="3" width="25.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="17.5583333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="12.75" spans="1:13">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3964,7 +3966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="11.25" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="10.8" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>

--- a/server/excel/zytj(资源统计)_Proto.xlsx
+++ b/server/excel/zytj(资源统计)_Proto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="22943" windowHeight="9947" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CbhsZytj(分包商统计)" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153">
   <si>
     <t>属性名</t>
   </si>
@@ -471,7 +471,10 @@
     <t>float</t>
   </si>
   <si>
-    <t>必填|折旧费或租赁费</t>
+    <t>p_zpf</t>
+  </si>
+  <si>
+    <t>必填|租赁费</t>
   </si>
   <si>
     <t>p_total</t>
@@ -485,10 +488,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -528,17 +531,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -557,6 +567,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -564,29 +582,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,25 +613,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -647,25 +659,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -692,7 +695,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,7 +731,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,13 +767,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,13 +779,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,13 +791,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,13 +809,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,7 +827,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,31 +851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,25 +869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -913,74 +916,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1009,6 +944,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1017,10 +1020,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1029,133 +1032,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1250,7 +1253,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2722,8 +2725,8 @@
   <sheetPr/>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="10.8"/>
@@ -3365,10 +3368,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3510,7 +3513,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>36</v>
@@ -3519,10 +3522,10 @@
     </row>
     <row r="9" customFormat="1" ht="12" customHeight="1" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>36</v>
@@ -3531,10 +3534,10 @@
     </row>
     <row r="10" customFormat="1" ht="12" customHeight="1" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>36</v>
@@ -3543,84 +3546,75 @@
     </row>
     <row r="11" customFormat="1" ht="12" customHeight="1" spans="1:11">
       <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" customFormat="1" ht="12" customHeight="1" spans="1:11">
+      <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" s="8" customFormat="1" ht="10.8" spans="1:13">
-      <c r="A12" s="1" t="s">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" s="8" customFormat="1" ht="10.8" spans="1:13">
+      <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1">
-        <v>50</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" customFormat="1" ht="12" customHeight="1" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" s="8" customFormat="1" ht="10.8" spans="1:13">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" customFormat="1" ht="12" customHeight="1" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="1"/>
+        <v>46</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="K14" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" s="8" customFormat="1" ht="10.8" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -3628,44 +3622,53 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1">
-        <v>50</v>
-      </c>
+      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" customFormat="1" ht="12" customHeight="1" spans="1:11">
+    <row r="16" s="8" customFormat="1" ht="10.8" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="1">
         <v>50</v>
       </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
     </row>
     <row r="17" customFormat="1" ht="12" customHeight="1" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="K17" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" customFormat="1" ht="12" customHeight="1" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>36</v>
@@ -3674,15 +3677,27 @@
     </row>
     <row r="19" customFormat="1" ht="12" customHeight="1" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K19" s="1"/>
+    </row>
+    <row r="20" customFormat="1" ht="12" customHeight="1" spans="1:11">
+      <c r="A20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/server/excel/zytj(资源统计)_Proto.xlsx
+++ b/server/excel/zytj(资源统计)_Proto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947" firstSheet="4" activeTab="6"/>
+    <workbookView windowWidth="22943" windowHeight="9947" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CbhsZytj(分包商统计)" sheetId="1" r:id="rId1"/>
@@ -531,29 +531,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,7 +597,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,32 +605,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -629,25 +634,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -659,16 +658,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,19 +695,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,7 +803,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,18 +821,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -761,85 +833,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,7 +863,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,19 +875,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,6 +916,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -926,6 +965,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,54 +1004,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1003,15 +1012,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1020,10 +1020,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1032,133 +1032,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1253,7 +1253,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2725,8 +2725,8 @@
   <sheetPr/>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="10.8"/>
@@ -3370,7 +3370,7 @@
   <sheetPr/>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
